--- a/analysis/edcr (validation)/out/top_f1/copper_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/copper_shift_new_20_results.xlsx
@@ -576,31 +576,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L2">
-        <v>0.2857142857142857</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="M2">
-        <v>0.75</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="N2">
-        <v>0.4137931034482759</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="O2">
-        <v>-0.2642857142857143</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="P2">
-        <v>0.1029411764705882</v>
+        <v>0.0341005967604433</v>
       </c>
       <c r="Q2">
-        <v>-0.1808014911463187</v>
+        <v>0.05818318318318305</v>
       </c>
       <c r="R2">
-        <v>-0.4805194805194806</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="S2">
-        <v>0.159090909090909</v>
+        <v>0.05270092226613965</v>
       </c>
       <c r="T2">
-        <v>-0.3040752351097178</v>
+        <v>0.09785353535353512</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -638,31 +638,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L3">
-        <v>0.2857142857142857</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="M3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N3">
-        <v>0.4137931034482759</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="O3">
-        <v>-0.2642857142857143</v>
+        <v>0.07162162162162156</v>
       </c>
       <c r="P3">
-        <v>0.1029411764705882</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="Q3">
-        <v>-0.1808014911463187</v>
+        <v>0.0487620487620487</v>
       </c>
       <c r="R3">
-        <v>-0.4805194805194806</v>
+        <v>0.1302211302211301</v>
       </c>
       <c r="S3">
-        <v>0.159090909090909</v>
+        <v>0.03030303030303019</v>
       </c>
       <c r="T3">
-        <v>-0.3040752351097178</v>
+        <v>0.08200890019071827</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -700,31 +700,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N4">
-        <v>0.4615384615384616</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="O4">
-        <v>-0.2166666666666667</v>
+        <v>0.07162162162162156</v>
       </c>
       <c r="P4">
-        <v>0.1029411764705882</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="Q4">
-        <v>-0.1330561330561331</v>
+        <v>0.0487620487620487</v>
       </c>
       <c r="R4">
-        <v>-0.393939393939394</v>
+        <v>0.1302211302211301</v>
       </c>
       <c r="S4">
-        <v>0.159090909090909</v>
+        <v>0.03030303030303019</v>
       </c>
       <c r="T4">
-        <v>-0.2237762237762238</v>
+        <v>0.08200890019071827</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -762,31 +762,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="M5">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N5">
-        <v>0.4615384615384616</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="O5">
-        <v>-0.2166666666666667</v>
+        <v>0.07162162162162156</v>
       </c>
       <c r="P5">
-        <v>0.1029411764705882</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="Q5">
-        <v>-0.1330561330561331</v>
+        <v>0.0487620487620487</v>
       </c>
       <c r="R5">
-        <v>-0.393939393939394</v>
+        <v>0.1302211302211301</v>
       </c>
       <c r="S5">
-        <v>0.159090909090909</v>
+        <v>0.03030303030303019</v>
       </c>
       <c r="T5">
-        <v>-0.2237762237762238</v>
+        <v>0.08200890019071827</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -824,31 +824,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="M6">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N6">
-        <v>0.4615384615384616</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="O6">
-        <v>-0.2166666666666667</v>
+        <v>0.07162162162162156</v>
       </c>
       <c r="P6">
-        <v>0.1029411764705882</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="Q6">
-        <v>-0.1330561330561331</v>
+        <v>0.0487620487620487</v>
       </c>
       <c r="R6">
-        <v>-0.393939393939394</v>
+        <v>0.1302211302211301</v>
       </c>
       <c r="S6">
-        <v>0.159090909090909</v>
+        <v>0.03030303030303019</v>
       </c>
       <c r="T6">
-        <v>-0.2237762237762238</v>
+        <v>0.08200890019071827</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -883,31 +883,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L7">
-        <v>0.3529411764705883</v>
+        <v>0.6282051282051282</v>
       </c>
       <c r="M7">
-        <v>0.75</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N7">
-        <v>0.48</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="O7">
-        <v>-0.1970588235294118</v>
+        <v>0.07820512820512815</v>
       </c>
       <c r="P7">
-        <v>0.1029411764705882</v>
+        <v>0.06308610400682013</v>
       </c>
       <c r="Q7">
-        <v>-0.1145945945945946</v>
+        <v>0.07207207207207211</v>
       </c>
       <c r="R7">
-        <v>-0.3582887700534759</v>
+        <v>0.1421911421911421</v>
       </c>
       <c r="S7">
-        <v>0.159090909090909</v>
+        <v>0.09749670619235838</v>
       </c>
       <c r="T7">
-        <v>-0.1927272727272728</v>
+        <v>0.1212121212121213</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -945,31 +945,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L8">
-        <v>0.3888888888888889</v>
+        <v>0.6282051282051282</v>
       </c>
       <c r="M8">
-        <v>0.875</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N8">
-        <v>0.5384615384615385</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="O8">
-        <v>-0.1611111111111111</v>
+        <v>0.07820512820512815</v>
       </c>
       <c r="P8">
-        <v>0.2279411764705882</v>
+        <v>0.06308610400682013</v>
       </c>
       <c r="Q8">
-        <v>-0.05613305613305608</v>
+        <v>0.07207207207207211</v>
       </c>
       <c r="R8">
-        <v>-0.292929292929293</v>
+        <v>0.1421911421911421</v>
       </c>
       <c r="S8">
-        <v>0.3522727272727272</v>
+        <v>0.09749670619235838</v>
       </c>
       <c r="T8">
-        <v>-0.09440559440559432</v>
+        <v>0.1212121212121213</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1007,31 +1007,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L9">
-        <v>0.375</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="M9">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N9">
-        <v>0.5</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="O9">
-        <v>-0.175</v>
+        <v>0.07337662337662332</v>
       </c>
       <c r="P9">
-        <v>0.1029411764705882</v>
+        <v>0.04859335038363166</v>
       </c>
       <c r="Q9">
-        <v>-0.09459459459459463</v>
+        <v>0.0629396519807478</v>
       </c>
       <c r="R9">
-        <v>-0.3181818181818182</v>
+        <v>0.1334120425029515</v>
       </c>
       <c r="S9">
-        <v>0.159090909090909</v>
+        <v>0.07509881422924893</v>
       </c>
       <c r="T9">
-        <v>-0.1590909090909091</v>
+        <v>0.1058530510585304</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1069,31 +1069,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L10">
-        <v>0.375</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="M10">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="O10">
-        <v>-0.175</v>
+        <v>0.07337662337662332</v>
       </c>
       <c r="P10">
-        <v>0.1029411764705882</v>
+        <v>0.04859335038363166</v>
       </c>
       <c r="Q10">
-        <v>-0.09459459459459463</v>
+        <v>0.0629396519807478</v>
       </c>
       <c r="R10">
-        <v>-0.3181818181818182</v>
+        <v>0.1334120425029515</v>
       </c>
       <c r="S10">
-        <v>0.159090909090909</v>
+        <v>0.07509881422924893</v>
       </c>
       <c r="T10">
-        <v>-0.1590909090909091</v>
+        <v>0.1058530510585304</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1131,31 +1131,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L11">
-        <v>0.375</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="M11">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="O11">
-        <v>-0.175</v>
+        <v>0.07337662337662332</v>
       </c>
       <c r="P11">
-        <v>0.1029411764705882</v>
+        <v>0.04859335038363166</v>
       </c>
       <c r="Q11">
-        <v>-0.09459459459459463</v>
+        <v>0.0629396519807478</v>
       </c>
       <c r="R11">
-        <v>-0.3181818181818182</v>
+        <v>0.1334120425029515</v>
       </c>
       <c r="S11">
-        <v>0.159090909090909</v>
+        <v>0.07509881422924893</v>
       </c>
       <c r="T11">
-        <v>-0.1590909090909091</v>
+        <v>0.1058530510585304</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1190,31 +1190,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="M12">
-        <v>0.875</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="N12">
-        <v>0.4827586206896551</v>
+        <v>0.6503067484662577</v>
       </c>
       <c r="O12">
-        <v>-0.1884057971014493</v>
+        <v>0.04209065679925994</v>
       </c>
       <c r="P12">
-        <v>0.1691176470588235</v>
+        <v>0.06223358908780896</v>
       </c>
       <c r="Q12">
-        <v>-0.1172413793103448</v>
+        <v>0.05030674846625771</v>
       </c>
       <c r="R12">
-        <v>-0.3611111111111111</v>
+        <v>0.08067375886524822</v>
       </c>
       <c r="S12">
-        <v>0.2395833333333333</v>
+        <v>0.08816425120772936</v>
       </c>
       <c r="T12">
-        <v>-0.1954022988505748</v>
+        <v>0.08384458077709619</v>
       </c>
       <c r="U12" t="s">
         <v>31</v>
@@ -1255,31 +1255,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L13">
-        <v>0.35</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="M13">
-        <v>0.875</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="N13">
-        <v>0.4999999999999999</v>
+        <v>0.6419753086419753</v>
       </c>
       <c r="O13">
-        <v>-0.1717391304347826</v>
+        <v>0.03740065451145391</v>
       </c>
       <c r="P13">
-        <v>0.1691176470588235</v>
+        <v>0.0477408354646206</v>
       </c>
       <c r="Q13">
-        <v>-0.1000000000000001</v>
+        <v>0.0419753086419753</v>
       </c>
       <c r="R13">
-        <v>-0.3291666666666667</v>
+        <v>0.07168458781362</v>
       </c>
       <c r="S13">
-        <v>0.2395833333333333</v>
+        <v>0.06763285024154585</v>
       </c>
       <c r="T13">
-        <v>-0.1666666666666668</v>
+        <v>0.0699588477366255</v>
       </c>
       <c r="U13" t="s">
         <v>31</v>
@@ -1320,31 +1320,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L14">
-        <v>0.3684210526315789</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="M14">
-        <v>0.875</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N14">
-        <v>0.5185185185185185</v>
+        <v>0.6193548387096773</v>
       </c>
       <c r="O14">
-        <v>-0.1533180778032037</v>
+        <v>0.03640040444893833</v>
       </c>
       <c r="P14">
-        <v>0.1691176470588235</v>
+        <v>-0.01023017902813306</v>
       </c>
       <c r="Q14">
-        <v>-0.08148148148148149</v>
+        <v>0.01935483870967736</v>
       </c>
       <c r="R14">
-        <v>-0.293859649122807</v>
+        <v>0.06976744186046513</v>
       </c>
       <c r="S14">
-        <v>0.2395833333333333</v>
+        <v>-0.0144927536231885</v>
       </c>
       <c r="T14">
-        <v>-0.1358024691358025</v>
+        <v>0.03225806451612893</v>
       </c>
       <c r="U14" t="s">
         <v>31</v>
@@ -1385,31 +1385,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L15">
-        <v>0.3684210526315789</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="M15">
-        <v>0.875</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N15">
-        <v>0.5185185185185185</v>
+        <v>0.6193548387096773</v>
       </c>
       <c r="O15">
-        <v>-0.1533180778032037</v>
+        <v>0.03640040444893833</v>
       </c>
       <c r="P15">
-        <v>0.1691176470588235</v>
+        <v>-0.01023017902813306</v>
       </c>
       <c r="Q15">
-        <v>-0.08148148148148149</v>
+        <v>0.01935483870967736</v>
       </c>
       <c r="R15">
-        <v>-0.293859649122807</v>
+        <v>0.06976744186046513</v>
       </c>
       <c r="S15">
-        <v>0.2395833333333333</v>
+        <v>-0.0144927536231885</v>
       </c>
       <c r="T15">
-        <v>-0.1358024691358025</v>
+        <v>0.03225806451612893</v>
       </c>
       <c r="U15" t="s">
         <v>31</v>
@@ -1450,31 +1450,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L16">
-        <v>0.3684210526315789</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="M16">
-        <v>0.875</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N16">
-        <v>0.5185185185185185</v>
+        <v>0.6193548387096773</v>
       </c>
       <c r="O16">
-        <v>-0.1533180778032037</v>
+        <v>0.03640040444893833</v>
       </c>
       <c r="P16">
-        <v>0.1691176470588235</v>
+        <v>-0.01023017902813306</v>
       </c>
       <c r="Q16">
-        <v>-0.08148148148148149</v>
+        <v>0.01935483870967736</v>
       </c>
       <c r="R16">
-        <v>-0.293859649122807</v>
+        <v>0.06976744186046513</v>
       </c>
       <c r="S16">
-        <v>0.2395833333333333</v>
+        <v>-0.0144927536231885</v>
       </c>
       <c r="T16">
-        <v>-0.1358024691358025</v>
+        <v>0.03225806451612893</v>
       </c>
       <c r="U16" t="s">
         <v>31</v>
@@ -1512,31 +1512,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L17">
-        <v>0.2857142857142857</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="M17">
-        <v>0.75</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N17">
-        <v>0.4137931034482759</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O17">
-        <v>-0.2360248447204969</v>
+        <v>-0.03525264394829608</v>
       </c>
       <c r="P17">
-        <v>0.04411764705882348</v>
+        <v>0.07672634271099743</v>
       </c>
       <c r="Q17">
-        <v>-0.1862068965517241</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="R17">
-        <v>-0.4523809523809524</v>
+        <v>-0.06756756756756749</v>
       </c>
       <c r="S17">
-        <v>0.06249999999999993</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="T17">
-        <v>-0.3103448275862068</v>
+        <v>1.850371707708594E-16</v>
       </c>
       <c r="U17" t="s">
         <v>31</v>
@@ -1577,31 +1577,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L18">
-        <v>0.2857142857142857</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="M18">
-        <v>0.75</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N18">
-        <v>0.4137931034482759</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O18">
-        <v>-0.2360248447204969</v>
+        <v>-0.03525264394829608</v>
       </c>
       <c r="P18">
-        <v>0.04411764705882348</v>
+        <v>0.07672634271099743</v>
       </c>
       <c r="Q18">
-        <v>-0.1862068965517241</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="R18">
-        <v>-0.4523809523809524</v>
+        <v>-0.06756756756756749</v>
       </c>
       <c r="S18">
-        <v>0.06249999999999993</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="T18">
-        <v>-0.3103448275862068</v>
+        <v>1.850371707708594E-16</v>
       </c>
       <c r="U18" t="s">
         <v>31</v>
@@ -1642,31 +1642,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L19">
-        <v>0.3529411764705883</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="N19">
-        <v>0.48</v>
+        <v>0.6143790849673202</v>
       </c>
       <c r="O19">
-        <v>-0.1687979539641943</v>
+        <v>0.03778467908902694</v>
       </c>
       <c r="P19">
-        <v>0.04411764705882348</v>
+        <v>-0.02472293265132142</v>
       </c>
       <c r="Q19">
-        <v>-0.12</v>
+        <v>0.01437908496732021</v>
       </c>
       <c r="R19">
-        <v>-0.3235294117647058</v>
+        <v>0.07242063492063497</v>
       </c>
       <c r="S19">
-        <v>0.06249999999999993</v>
+        <v>-0.035024154589372</v>
       </c>
       <c r="T19">
-        <v>-0.2</v>
+        <v>0.02396514161220035</v>
       </c>
       <c r="U19" t="s">
         <v>31</v>
@@ -1707,31 +1707,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L20">
-        <v>0.3529411764705883</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="M20">
-        <v>0.75</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="N20">
-        <v>0.48</v>
+        <v>0.6143790849673202</v>
       </c>
       <c r="O20">
-        <v>-0.1687979539641943</v>
+        <v>0.03778467908902694</v>
       </c>
       <c r="P20">
-        <v>0.04411764705882348</v>
+        <v>-0.02472293265132142</v>
       </c>
       <c r="Q20">
-        <v>-0.12</v>
+        <v>0.01437908496732021</v>
       </c>
       <c r="R20">
-        <v>-0.3235294117647058</v>
+        <v>0.07242063492063497</v>
       </c>
       <c r="S20">
-        <v>0.06249999999999993</v>
+        <v>-0.035024154589372</v>
       </c>
       <c r="T20">
-        <v>-0.2</v>
+        <v>0.02396514161220035</v>
       </c>
       <c r="U20" t="s">
         <v>31</v>
@@ -1772,31 +1772,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L21">
-        <v>0.3529411764705883</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="N21">
-        <v>0.48</v>
+        <v>0.6143790849673202</v>
       </c>
       <c r="O21">
-        <v>-0.1687979539641943</v>
+        <v>0.03778467908902694</v>
       </c>
       <c r="P21">
-        <v>0.04411764705882348</v>
+        <v>-0.02472293265132142</v>
       </c>
       <c r="Q21">
-        <v>-0.12</v>
+        <v>0.01437908496732021</v>
       </c>
       <c r="R21">
-        <v>-0.3235294117647058</v>
+        <v>0.07242063492063497</v>
       </c>
       <c r="S21">
-        <v>0.06249999999999993</v>
+        <v>-0.035024154589372</v>
       </c>
       <c r="T21">
-        <v>-0.2</v>
+        <v>0.02396514161220035</v>
       </c>
       <c r="U21" t="s">
         <v>31</v>
@@ -1834,31 +1834,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L22">
-        <v>0.3571428571428572</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M22">
-        <v>0.625</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="N22">
-        <v>0.4545454545454545</v>
+        <v>0.6</v>
       </c>
       <c r="O22">
-        <v>-0.4206349206349206</v>
+        <v>0.02710027100271006</v>
       </c>
       <c r="P22">
-        <v>0.2132352941176471</v>
+        <v>0.06649616368286448</v>
       </c>
       <c r="Q22">
-        <v>-0.08391608391608391</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="R22">
-        <v>-0.5408163265306123</v>
+        <v>0.03484320557491294</v>
       </c>
       <c r="S22">
-        <v>0.5178571428571429</v>
+        <v>0.1614906832298137</v>
       </c>
       <c r="T22">
-        <v>-0.1558441558441558</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="U22" t="s">
         <v>32</v>
@@ -1899,31 +1899,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L23">
-        <v>0.3571428571428572</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M23">
-        <v>0.625</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="N23">
-        <v>0.4545454545454545</v>
+        <v>0.6</v>
       </c>
       <c r="O23">
-        <v>-0.4206349206349206</v>
+        <v>0.02710027100271006</v>
       </c>
       <c r="P23">
-        <v>0.2132352941176471</v>
+        <v>0.06649616368286448</v>
       </c>
       <c r="Q23">
-        <v>-0.08391608391608391</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="R23">
-        <v>-0.5408163265306123</v>
+        <v>0.03484320557491294</v>
       </c>
       <c r="S23">
-        <v>0.5178571428571429</v>
+        <v>0.1614906832298137</v>
       </c>
       <c r="T23">
-        <v>-0.1558441558441558</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="U23" t="s">
         <v>32</v>
@@ -1964,31 +1964,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L24">
-        <v>0.4285714285714285</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M24">
-        <v>0.75</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="N24">
-        <v>0.5454545454545454</v>
+        <v>0.6126126126126127</v>
       </c>
       <c r="O24">
-        <v>-0.3492063492063492</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P24">
-        <v>0.3382352941176471</v>
+        <v>0.0809889173060529</v>
       </c>
       <c r="Q24">
-        <v>0.006993006993006978</v>
+        <v>0.07415107415107425</v>
       </c>
       <c r="R24">
-        <v>-0.4489795918367347</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="S24">
-        <v>0.8214285714285715</v>
+        <v>0.1966873706004142</v>
       </c>
       <c r="T24">
-        <v>0.01298701298701296</v>
+        <v>0.1377091377091379</v>
       </c>
       <c r="U24" t="s">
         <v>32</v>
@@ -2029,31 +2029,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L25">
-        <v>0.4285714285714285</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M25">
-        <v>0.75</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="N25">
-        <v>0.5454545454545454</v>
+        <v>0.6126126126126127</v>
       </c>
       <c r="O25">
-        <v>-0.3492063492063492</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P25">
-        <v>0.3382352941176471</v>
+        <v>0.0809889173060529</v>
       </c>
       <c r="Q25">
-        <v>0.006993006993006978</v>
+        <v>0.07415107415107425</v>
       </c>
       <c r="R25">
-        <v>-0.4489795918367347</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="S25">
-        <v>0.8214285714285715</v>
+        <v>0.1966873706004142</v>
       </c>
       <c r="T25">
-        <v>0.01298701298701296</v>
+        <v>0.1377091377091379</v>
       </c>
       <c r="U25" t="s">
         <v>32</v>
@@ -2094,31 +2094,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L26">
-        <v>0.4285714285714285</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="M26">
-        <v>0.75</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="N26">
-        <v>0.5454545454545454</v>
+        <v>0.6126126126126127</v>
       </c>
       <c r="O26">
-        <v>-0.3492063492063492</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P26">
-        <v>0.3382352941176471</v>
+        <v>0.0809889173060529</v>
       </c>
       <c r="Q26">
-        <v>0.006993006993006978</v>
+        <v>0.07415107415107425</v>
       </c>
       <c r="R26">
-        <v>-0.4489795918367347</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="S26">
-        <v>0.8214285714285715</v>
+        <v>0.1966873706004142</v>
       </c>
       <c r="T26">
-        <v>0.01298701298701296</v>
+        <v>0.1377091377091379</v>
       </c>
       <c r="U26" t="s">
         <v>32</v>
@@ -2156,31 +2156,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L27">
-        <v>0.4</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="M27">
-        <v>0.75</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="N27">
-        <v>0.5217391304347827</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="O27">
-        <v>-0.3777777777777778</v>
+        <v>0.05895691609977327</v>
       </c>
       <c r="P27">
-        <v>0.3382352941176471</v>
+        <v>0.1824381926683717</v>
       </c>
       <c r="Q27">
-        <v>-0.01672240802675573</v>
+        <v>0.1564537157757497</v>
       </c>
       <c r="R27">
-        <v>-0.4857142857142857</v>
+        <v>0.07580174927113706</v>
       </c>
       <c r="S27">
-        <v>0.8214285714285715</v>
+        <v>0.443064182194617</v>
       </c>
       <c r="T27">
-        <v>-0.03105590062111779</v>
+        <v>0.2905569007263924</v>
       </c>
       <c r="U27" t="s">
         <v>32</v>
@@ -2221,31 +2221,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L28">
-        <v>0.4</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="M28">
-        <v>0.75</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="N28">
-        <v>0.5217391304347827</v>
+        <v>0.6724137931034482</v>
       </c>
       <c r="O28">
-        <v>-0.3777777777777778</v>
+        <v>0.05200945626477538</v>
       </c>
       <c r="P28">
-        <v>0.3382352941176471</v>
+        <v>0.1534526854219949</v>
       </c>
       <c r="Q28">
-        <v>-0.01672240802675573</v>
+        <v>0.1339522546419097</v>
       </c>
       <c r="R28">
-        <v>-0.4857142857142857</v>
+        <v>0.06686930091185406</v>
       </c>
       <c r="S28">
-        <v>0.8214285714285715</v>
+        <v>0.3726708074534161</v>
       </c>
       <c r="T28">
-        <v>-0.03105590062111779</v>
+        <v>0.2487684729064038</v>
       </c>
       <c r="U28" t="s">
         <v>32</v>
@@ -2286,31 +2286,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L29">
-        <v>0.4285714285714285</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="M29">
-        <v>0.75</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="N29">
-        <v>0.5454545454545454</v>
+        <v>0.625</v>
       </c>
       <c r="O29">
-        <v>-0.3492063492063492</v>
+        <v>0.03617571059431524</v>
       </c>
       <c r="P29">
-        <v>0.3382352941176471</v>
+        <v>0.09548167092924131</v>
       </c>
       <c r="Q29">
-        <v>0.006993006993006978</v>
+        <v>0.08653846153846156</v>
       </c>
       <c r="R29">
-        <v>-0.4489795918367347</v>
+        <v>0.04651162790697673</v>
       </c>
       <c r="S29">
-        <v>0.8214285714285715</v>
+        <v>0.2318840579710146</v>
       </c>
       <c r="T29">
-        <v>0.01298701298701296</v>
+        <v>0.1607142857142858</v>
       </c>
       <c r="U29" t="s">
         <v>32</v>
@@ -2351,31 +2351,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L30">
-        <v>0.4285714285714285</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="M30">
-        <v>0.75</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="N30">
-        <v>0.5454545454545454</v>
+        <v>0.625</v>
       </c>
       <c r="O30">
-        <v>-0.3492063492063492</v>
+        <v>0.03617571059431524</v>
       </c>
       <c r="P30">
-        <v>0.3382352941176471</v>
+        <v>0.09548167092924131</v>
       </c>
       <c r="Q30">
-        <v>0.006993006993006978</v>
+        <v>0.08653846153846156</v>
       </c>
       <c r="R30">
-        <v>-0.4489795918367347</v>
+        <v>0.04651162790697673</v>
       </c>
       <c r="S30">
-        <v>0.8214285714285715</v>
+        <v>0.2318840579710146</v>
       </c>
       <c r="T30">
-        <v>0.01298701298701296</v>
+        <v>0.1607142857142858</v>
       </c>
       <c r="U30" t="s">
         <v>32</v>
@@ -2416,31 +2416,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L31">
-        <v>0.4285714285714285</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="M31">
-        <v>0.75</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="N31">
-        <v>0.5454545454545454</v>
+        <v>0.625</v>
       </c>
       <c r="O31">
-        <v>-0.3492063492063492</v>
+        <v>0.03617571059431524</v>
       </c>
       <c r="P31">
-        <v>0.3382352941176471</v>
+        <v>0.09548167092924131</v>
       </c>
       <c r="Q31">
-        <v>0.006993006993006978</v>
+        <v>0.08653846153846156</v>
       </c>
       <c r="R31">
-        <v>-0.4489795918367347</v>
+        <v>0.04651162790697673</v>
       </c>
       <c r="S31">
-        <v>0.8214285714285715</v>
+        <v>0.2318840579710146</v>
       </c>
       <c r="T31">
-        <v>0.01298701298701296</v>
+        <v>0.1607142857142858</v>
       </c>
       <c r="U31" t="s">
         <v>32</v>
@@ -2478,31 +2478,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L32">
-        <v>0.2962962962962963</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N32">
-        <v>0.4571428571428571</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="O32">
-        <v>-0.2037037037037037</v>
+        <v>-0.04166666666666669</v>
       </c>
       <c r="P32">
-        <v>0.9411764705882353</v>
+        <v>0.7382779198635976</v>
       </c>
       <c r="Q32">
-        <v>0.3518796992481203</v>
+        <v>0.4767474241158451</v>
       </c>
       <c r="R32">
-        <v>-0.4074074074074074</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="S32">
-        <v>16</v>
+        <v>12.55072463768116</v>
       </c>
       <c r="T32">
-        <v>3.342857142857143</v>
+        <v>4.529100529100529</v>
       </c>
       <c r="U32" t="s">
         <v>33</v>
@@ -2543,31 +2543,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L33">
-        <v>0.2962962962962963</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N33">
-        <v>0.4571428571428571</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="O33">
-        <v>-0.2037037037037037</v>
+        <v>-0.04166666666666669</v>
       </c>
       <c r="P33">
-        <v>0.9411764705882353</v>
+        <v>0.7382779198635976</v>
       </c>
       <c r="Q33">
-        <v>0.3518796992481203</v>
+        <v>0.4767474241158451</v>
       </c>
       <c r="R33">
-        <v>-0.4074074074074074</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="S33">
-        <v>16</v>
+        <v>12.55072463768116</v>
       </c>
       <c r="T33">
-        <v>3.342857142857143</v>
+        <v>4.529100529100529</v>
       </c>
       <c r="U33" t="s">
         <v>33</v>
@@ -2608,31 +2608,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L34">
-        <v>0.08333333333333333</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="M34">
-        <v>0.875</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="N34">
-        <v>0.1521739130434782</v>
+        <v>0.3314917127071823</v>
       </c>
       <c r="O34">
-        <v>-0.4166666666666667</v>
+        <v>-0.2321428571428572</v>
       </c>
       <c r="P34">
-        <v>0.8161764705882353</v>
+        <v>0.3759590792838874</v>
       </c>
       <c r="Q34">
-        <v>0.04691075514874141</v>
+        <v>0.2262285548124455</v>
       </c>
       <c r="R34">
-        <v>-0.8333333333333334</v>
+        <v>-0.4642857142857143</v>
       </c>
       <c r="S34">
-        <v>13.875</v>
+        <v>6.391304347826087</v>
       </c>
       <c r="T34">
-        <v>0.4456521739130434</v>
+        <v>2.149171270718232</v>
       </c>
       <c r="U34" t="s">
         <v>33</v>
@@ -2673,31 +2673,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L35">
-        <v>0.08333333333333333</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="M35">
-        <v>0.875</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="N35">
-        <v>0.1521739130434782</v>
+        <v>0.3314917127071823</v>
       </c>
       <c r="O35">
-        <v>-0.4166666666666667</v>
+        <v>-0.2321428571428572</v>
       </c>
       <c r="P35">
-        <v>0.8161764705882353</v>
+        <v>0.3759590792838874</v>
       </c>
       <c r="Q35">
-        <v>0.04691075514874141</v>
+        <v>0.2262285548124455</v>
       </c>
       <c r="R35">
-        <v>-0.8333333333333334</v>
+        <v>-0.4642857142857143</v>
       </c>
       <c r="S35">
-        <v>13.875</v>
+        <v>6.391304347826087</v>
       </c>
       <c r="T35">
-        <v>0.4456521739130434</v>
+        <v>2.149171270718232</v>
       </c>
       <c r="U35" t="s">
         <v>33</v>
@@ -2738,31 +2738,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L36">
-        <v>0.08333333333333333</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="M36">
-        <v>0.875</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="N36">
-        <v>0.1521739130434782</v>
+        <v>0.3314917127071823</v>
       </c>
       <c r="O36">
-        <v>-0.4166666666666667</v>
+        <v>-0.2321428571428572</v>
       </c>
       <c r="P36">
-        <v>0.8161764705882353</v>
+        <v>0.3759590792838874</v>
       </c>
       <c r="Q36">
-        <v>0.04691075514874141</v>
+        <v>0.2262285548124455</v>
       </c>
       <c r="R36">
-        <v>-0.8333333333333334</v>
+        <v>-0.4642857142857143</v>
       </c>
       <c r="S36">
-        <v>13.875</v>
+        <v>6.391304347826087</v>
       </c>
       <c r="T36">
-        <v>0.4456521739130434</v>
+        <v>2.149171270718232</v>
       </c>
       <c r="U36" t="s">
         <v>33</v>
@@ -2800,31 +2800,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L37">
-        <v>0.3043478260869565</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="M37">
-        <v>0.875</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="N37">
-        <v>0.4516129032258065</v>
+        <v>0.5930232558139534</v>
       </c>
       <c r="O37">
-        <v>-0.1956521739130435</v>
+        <v>-0.004854368932038833</v>
       </c>
       <c r="P37">
-        <v>0.8161764705882353</v>
+        <v>0.6803069053708439</v>
       </c>
       <c r="Q37">
-        <v>0.3463497453310697</v>
+        <v>0.4877600979192166</v>
       </c>
       <c r="R37">
-        <v>-0.3913043478260869</v>
+        <v>-0.009708737864077666</v>
       </c>
       <c r="S37">
-        <v>13.875</v>
+        <v>11.56521739130435</v>
       </c>
       <c r="T37">
-        <v>3.290322580645162</v>
+        <v>4.633720930232558</v>
       </c>
       <c r="U37" t="s">
         <v>33</v>
@@ -2865,31 +2865,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L38">
-        <v>0.3043478260869565</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="M38">
-        <v>0.875</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="N38">
-        <v>0.4516129032258065</v>
+        <v>0.5930232558139534</v>
       </c>
       <c r="O38">
-        <v>-0.1956521739130435</v>
+        <v>-0.004854368932038833</v>
       </c>
       <c r="P38">
-        <v>0.8161764705882353</v>
+        <v>0.6803069053708439</v>
       </c>
       <c r="Q38">
-        <v>0.3463497453310697</v>
+        <v>0.4877600979192166</v>
       </c>
       <c r="R38">
-        <v>-0.3913043478260869</v>
+        <v>-0.009708737864077666</v>
       </c>
       <c r="S38">
-        <v>13.875</v>
+        <v>11.56521739130435</v>
       </c>
       <c r="T38">
-        <v>3.290322580645162</v>
+        <v>4.633720930232558</v>
       </c>
       <c r="U38" t="s">
         <v>33</v>
@@ -2930,31 +2930,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.3140495867768595</v>
       </c>
       <c r="O39">
-        <v>-0.5</v>
+        <v>-0.1346153846153846</v>
       </c>
       <c r="P39">
-        <v>-0.05882352941176471</v>
+        <v>0.216538789428815</v>
       </c>
       <c r="Q39">
-        <v>-0.1052631578947368</v>
+        <v>0.2087864288821227</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>-0.2692307692307693</v>
       </c>
       <c r="S39">
-        <v>-1</v>
+        <v>3.681159420289855</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>1.983471074380166</v>
       </c>
       <c r="U39" t="s">
         <v>33</v>
@@ -2995,31 +2995,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.3140495867768595</v>
       </c>
       <c r="O40">
-        <v>-0.5</v>
+        <v>-0.1346153846153846</v>
       </c>
       <c r="P40">
-        <v>-0.05882352941176471</v>
+        <v>0.216538789428815</v>
       </c>
       <c r="Q40">
-        <v>-0.1052631578947368</v>
+        <v>0.2087864288821227</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>-0.2692307692307693</v>
       </c>
       <c r="S40">
-        <v>-1</v>
+        <v>3.681159420289855</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>1.983471074380166</v>
       </c>
       <c r="U40" t="s">
         <v>33</v>
@@ -3060,31 +3060,31 @@
         <v>0.1449579831932773</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.3140495867768595</v>
       </c>
       <c r="O41">
-        <v>-0.5</v>
+        <v>-0.1346153846153846</v>
       </c>
       <c r="P41">
-        <v>-0.05882352941176471</v>
+        <v>0.216538789428815</v>
       </c>
       <c r="Q41">
-        <v>-0.1052631578947368</v>
+        <v>0.2087864288821227</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>-0.2692307692307693</v>
       </c>
       <c r="S41">
-        <v>-1</v>
+        <v>3.681159420289855</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>1.983471074380166</v>
       </c>
       <c r="U41" t="s">
         <v>33</v>

--- a/analysis/edcr (validation)/out/top_f1/copper_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/copper_shift_new_20_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -109,7 +109,10 @@
     <t>detection_correction</t>
   </si>
   <si>
-    <t>Best Recall, Best F1</t>
+    <t>Best F1</t>
+  </si>
+  <si>
+    <t>Best Recall</t>
   </si>
   <si>
     <t>Best Precision</t>
@@ -564,13 +567,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H2">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I2">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J2">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K2">
         <v>0.1449579831932773</v>
@@ -585,22 +588,25 @@
         <v>0.6527777777777777</v>
       </c>
       <c r="O2">
-        <v>0.07666666666666666</v>
+        <v>0.01022831050228312</v>
       </c>
       <c r="P2">
-        <v>0.0341005967604433</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q2">
-        <v>0.05818318318318305</v>
+        <v>0.01897496087636918</v>
       </c>
       <c r="R2">
-        <v>0.1393939393939394</v>
+        <v>0.01659259259259262</v>
       </c>
       <c r="S2">
-        <v>0.05270092226613965</v>
+        <v>0.04444444444444447</v>
       </c>
       <c r="T2">
-        <v>0.09785353535353512</v>
+        <v>0.02993827160493804</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -626,13 +632,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H3">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I3">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J3">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K3">
         <v>0.1449579831932773</v>
@@ -647,22 +653,25 @@
         <v>0.6433566433566433</v>
       </c>
       <c r="O3">
-        <v>0.07162162162162156</v>
+        <v>0.005183265457238018</v>
       </c>
       <c r="P3">
-        <v>0.01960784313725483</v>
+        <v>0.01449275362318836</v>
       </c>
       <c r="Q3">
-        <v>0.0487620487620487</v>
+        <v>0.009553826455234837</v>
       </c>
       <c r="R3">
-        <v>0.1302211302211301</v>
+        <v>0.008408408408408339</v>
       </c>
       <c r="S3">
-        <v>0.03030303030303019</v>
+        <v>0.02222222222222215</v>
       </c>
       <c r="T3">
-        <v>0.08200890019071827</v>
+        <v>0.01507381507381496</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -688,13 +697,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H4">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I4">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J4">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K4">
         <v>0.1449579831932773</v>
@@ -709,22 +718,25 @@
         <v>0.6433566433566433</v>
       </c>
       <c r="O4">
-        <v>0.07162162162162156</v>
+        <v>0.005183265457238018</v>
       </c>
       <c r="P4">
-        <v>0.01960784313725483</v>
+        <v>0.01449275362318836</v>
       </c>
       <c r="Q4">
-        <v>0.0487620487620487</v>
+        <v>0.009553826455234837</v>
       </c>
       <c r="R4">
-        <v>0.1302211302211301</v>
+        <v>0.008408408408408339</v>
       </c>
       <c r="S4">
-        <v>0.03030303030303019</v>
+        <v>0.02222222222222215</v>
       </c>
       <c r="T4">
-        <v>0.08200890019071827</v>
+        <v>0.01507381507381496</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -750,13 +762,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H5">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I5">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J5">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K5">
         <v>0.1449579831932773</v>
@@ -771,22 +783,25 @@
         <v>0.6433566433566433</v>
       </c>
       <c r="O5">
-        <v>0.07162162162162156</v>
+        <v>0.005183265457238018</v>
       </c>
       <c r="P5">
-        <v>0.01960784313725483</v>
+        <v>0.01449275362318836</v>
       </c>
       <c r="Q5">
-        <v>0.0487620487620487</v>
+        <v>0.009553826455234837</v>
       </c>
       <c r="R5">
-        <v>0.1302211302211301</v>
+        <v>0.008408408408408339</v>
       </c>
       <c r="S5">
-        <v>0.03030303030303019</v>
+        <v>0.02222222222222215</v>
       </c>
       <c r="T5">
-        <v>0.08200890019071827</v>
+        <v>0.01507381507381496</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -812,13 +827,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H6">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I6">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J6">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K6">
         <v>0.1449579831932773</v>
@@ -833,22 +848,25 @@
         <v>0.6433566433566433</v>
       </c>
       <c r="O6">
-        <v>0.07162162162162156</v>
+        <v>0.005183265457238018</v>
       </c>
       <c r="P6">
-        <v>0.01960784313725483</v>
+        <v>0.01449275362318836</v>
       </c>
       <c r="Q6">
-        <v>0.0487620487620487</v>
+        <v>0.009553826455234837</v>
       </c>
       <c r="R6">
-        <v>0.1302211302211301</v>
+        <v>0.008408408408408339</v>
       </c>
       <c r="S6">
-        <v>0.03030303030303019</v>
+        <v>0.02222222222222215</v>
       </c>
       <c r="T6">
-        <v>0.08200890019071827</v>
+        <v>0.01507381507381496</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -871,13 +889,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H7">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I7">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J7">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K7">
         <v>0.1449579831932773</v>
@@ -892,22 +910,25 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="O7">
-        <v>0.07820512820512815</v>
+        <v>0.01176677204074461</v>
       </c>
       <c r="P7">
-        <v>0.06308610400682013</v>
+        <v>0.05797101449275366</v>
       </c>
       <c r="Q7">
-        <v>0.07207207207207211</v>
+        <v>0.03286384976525825</v>
       </c>
       <c r="R7">
-        <v>0.1421911421911421</v>
+        <v>0.01908831908831904</v>
       </c>
       <c r="S7">
-        <v>0.09749670619235838</v>
+        <v>0.08888888888888895</v>
       </c>
       <c r="T7">
-        <v>0.1212121212121213</v>
+        <v>0.0518518518518519</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -933,13 +954,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H8">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I8">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J8">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K8">
         <v>0.1449579831932773</v>
@@ -954,22 +975,25 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="O8">
-        <v>0.07820512820512815</v>
+        <v>0.01176677204074461</v>
       </c>
       <c r="P8">
-        <v>0.06308610400682013</v>
+        <v>0.05797101449275366</v>
       </c>
       <c r="Q8">
-        <v>0.07207207207207211</v>
+        <v>0.03286384976525825</v>
       </c>
       <c r="R8">
-        <v>0.1421911421911421</v>
+        <v>0.01908831908831904</v>
       </c>
       <c r="S8">
-        <v>0.09749670619235838</v>
+        <v>0.08888888888888895</v>
       </c>
       <c r="T8">
-        <v>0.1212121212121213</v>
+        <v>0.0518518518518519</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -995,13 +1019,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H9">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I9">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J9">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K9">
         <v>0.1449579831932773</v>
@@ -1016,22 +1040,25 @@
         <v>0.6575342465753424</v>
       </c>
       <c r="O9">
-        <v>0.07337662337662332</v>
+        <v>0.006938267212239779</v>
       </c>
       <c r="P9">
-        <v>0.04859335038363166</v>
+        <v>0.04347826086956519</v>
       </c>
       <c r="Q9">
-        <v>0.0629396519807478</v>
+        <v>0.02373142967393393</v>
       </c>
       <c r="R9">
-        <v>0.1334120425029515</v>
+        <v>0.0112554112554112</v>
       </c>
       <c r="S9">
-        <v>0.07509881422924893</v>
+        <v>0.06666666666666662</v>
       </c>
       <c r="T9">
-        <v>0.1058530510585304</v>
+        <v>0.0374429223744291</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1057,13 +1084,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H10">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I10">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J10">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K10">
         <v>0.1449579831932773</v>
@@ -1078,22 +1105,25 @@
         <v>0.6575342465753424</v>
       </c>
       <c r="O10">
-        <v>0.07337662337662332</v>
+        <v>0.006938267212239779</v>
       </c>
       <c r="P10">
-        <v>0.04859335038363166</v>
+        <v>0.04347826086956519</v>
       </c>
       <c r="Q10">
-        <v>0.0629396519807478</v>
+        <v>0.02373142967393393</v>
       </c>
       <c r="R10">
-        <v>0.1334120425029515</v>
+        <v>0.0112554112554112</v>
       </c>
       <c r="S10">
-        <v>0.07509881422924893</v>
+        <v>0.06666666666666662</v>
       </c>
       <c r="T10">
-        <v>0.1058530510585304</v>
+        <v>0.0374429223744291</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1119,13 +1149,13 @@
         <v>0.6338028169014085</v>
       </c>
       <c r="H11">
-        <v>0.55</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="I11">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J11">
-        <v>0.5945945945945946</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="K11">
         <v>0.1449579831932773</v>
@@ -1140,22 +1170,25 @@
         <v>0.6575342465753424</v>
       </c>
       <c r="O11">
-        <v>0.07337662337662332</v>
+        <v>0.006938267212239779</v>
       </c>
       <c r="P11">
-        <v>0.04859335038363166</v>
+        <v>0.04347826086956519</v>
       </c>
       <c r="Q11">
-        <v>0.0629396519807478</v>
+        <v>0.02373142967393393</v>
       </c>
       <c r="R11">
-        <v>0.1334120425029515</v>
+        <v>0.0112554112554112</v>
       </c>
       <c r="S11">
-        <v>0.07509881422924893</v>
+        <v>0.06666666666666662</v>
       </c>
       <c r="T11">
-        <v>0.1058530510585304</v>
+        <v>0.0374429223744291</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1178,13 +1211,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H12">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I12">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K12">
         <v>0.1449579831932773</v>
@@ -1199,25 +1232,25 @@
         <v>0.6503067484662577</v>
       </c>
       <c r="O12">
-        <v>0.04209065679925994</v>
+        <v>0.009612919764163008</v>
       </c>
       <c r="P12">
-        <v>0.06223358908780896</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="Q12">
-        <v>0.05030674846625771</v>
+        <v>0.04504359057152096</v>
       </c>
       <c r="R12">
-        <v>0.08067375886524822</v>
+        <v>0.01734505087881586</v>
       </c>
       <c r="S12">
-        <v>0.08816425120772936</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="T12">
-        <v>0.08384458077709619</v>
+        <v>0.07441984529207812</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1243,13 +1276,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H13">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I13">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K13">
         <v>0.1449579831932773</v>
@@ -1264,25 +1297,25 @@
         <v>0.6419753086419753</v>
       </c>
       <c r="O13">
-        <v>0.03740065451145391</v>
+        <v>0.004922917476356981</v>
       </c>
       <c r="P13">
-        <v>0.0477408354646206</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="Q13">
-        <v>0.0419753086419753</v>
+        <v>0.03671215074723855</v>
       </c>
       <c r="R13">
-        <v>0.07168458781362</v>
+        <v>0.008882655446470204</v>
       </c>
       <c r="S13">
-        <v>0.06763285024154585</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="T13">
-        <v>0.0699588477366255</v>
+        <v>0.06065485775630718</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1308,13 +1341,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H14">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I14">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J14">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K14">
         <v>0.1449579831932773</v>
@@ -1329,25 +1362,25 @@
         <v>0.6193548387096773</v>
       </c>
       <c r="O14">
-        <v>0.03640040444893833</v>
+        <v>0.003922667413841396</v>
       </c>
       <c r="P14">
-        <v>-0.01023017902813306</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q14">
-        <v>0.01935483870967736</v>
+        <v>0.01409168081494061</v>
       </c>
       <c r="R14">
-        <v>0.06976744186046513</v>
+        <v>0.007077856420626867</v>
       </c>
       <c r="S14">
-        <v>-0.0144927536231885</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="T14">
-        <v>0.03225806451612893</v>
+        <v>0.02328190743338014</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1373,13 +1406,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H15">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I15">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J15">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K15">
         <v>0.1449579831932773</v>
@@ -1394,25 +1427,25 @@
         <v>0.6193548387096773</v>
       </c>
       <c r="O15">
-        <v>0.03640040444893833</v>
+        <v>0.003922667413841396</v>
       </c>
       <c r="P15">
-        <v>-0.01023017902813306</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q15">
-        <v>0.01935483870967736</v>
+        <v>0.01409168081494061</v>
       </c>
       <c r="R15">
-        <v>0.06976744186046513</v>
+        <v>0.007077856420626867</v>
       </c>
       <c r="S15">
-        <v>-0.0144927536231885</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="T15">
-        <v>0.03225806451612893</v>
+        <v>0.02328190743338014</v>
       </c>
       <c r="U15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1438,13 +1471,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H16">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I16">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K16">
         <v>0.1449579831932773</v>
@@ -1459,25 +1492,25 @@
         <v>0.6193548387096773</v>
       </c>
       <c r="O16">
-        <v>0.03640040444893833</v>
+        <v>0.003922667413841396</v>
       </c>
       <c r="P16">
-        <v>-0.01023017902813306</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q16">
-        <v>0.01935483870967736</v>
+        <v>0.01409168081494061</v>
       </c>
       <c r="R16">
-        <v>0.06976744186046513</v>
+        <v>0.007077856420626867</v>
       </c>
       <c r="S16">
-        <v>-0.0144927536231885</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="T16">
-        <v>0.03225806451612893</v>
+        <v>0.02328190743338014</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1500,13 +1533,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H17">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I17">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J17">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K17">
         <v>0.1449579831932773</v>
@@ -1521,25 +1554,25 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="O17">
-        <v>-0.03525264394829608</v>
+        <v>-0.06773038098339301</v>
       </c>
       <c r="P17">
-        <v>0.07672634271099743</v>
+        <v>0.1159420289855073</v>
       </c>
       <c r="Q17">
-        <v>1.110223024625157E-16</v>
+        <v>-0.005263157894736636</v>
       </c>
       <c r="R17">
-        <v>-0.06756756756756749</v>
+        <v>-0.1222091656874265</v>
       </c>
       <c r="S17">
-        <v>0.108695652173913</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="T17">
-        <v>1.850371707708594E-16</v>
+        <v>-0.008695652173912705</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1565,13 +1598,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H18">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I18">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J18">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K18">
         <v>0.1449579831932773</v>
@@ -1586,25 +1619,25 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="O18">
-        <v>-0.03525264394829608</v>
+        <v>-0.06773038098339301</v>
       </c>
       <c r="P18">
-        <v>0.07672634271099743</v>
+        <v>0.1159420289855073</v>
       </c>
       <c r="Q18">
-        <v>1.110223024625157E-16</v>
+        <v>-0.005263157894736636</v>
       </c>
       <c r="R18">
-        <v>-0.06756756756756749</v>
+        <v>-0.1222091656874265</v>
       </c>
       <c r="S18">
-        <v>0.108695652173913</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="T18">
-        <v>1.850371707708594E-16</v>
+        <v>-0.008695652173912705</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1630,13 +1663,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H19">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I19">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J19">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K19">
         <v>0.1449579831932773</v>
@@ -1651,25 +1684,25 @@
         <v>0.6143790849673202</v>
       </c>
       <c r="O19">
-        <v>0.03778467908902694</v>
+        <v>0.005306942053930008</v>
       </c>
       <c r="P19">
-        <v>-0.02472293265132142</v>
+        <v>0.01449275362318847</v>
       </c>
       <c r="Q19">
-        <v>0.01437908496732021</v>
+        <v>0.009115927072583463</v>
       </c>
       <c r="R19">
-        <v>0.07242063492063497</v>
+        <v>0.009575569358178057</v>
       </c>
       <c r="S19">
-        <v>-0.035024154589372</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="T19">
-        <v>0.02396514161220035</v>
+        <v>0.0150610969025292</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1695,13 +1728,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H20">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I20">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J20">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K20">
         <v>0.1449579831932773</v>
@@ -1716,25 +1749,25 @@
         <v>0.6143790849673202</v>
       </c>
       <c r="O20">
-        <v>0.03778467908902694</v>
+        <v>0.005306942053930008</v>
       </c>
       <c r="P20">
-        <v>-0.02472293265132142</v>
+        <v>0.01449275362318847</v>
       </c>
       <c r="Q20">
-        <v>0.01437908496732021</v>
+        <v>0.009115927072583463</v>
       </c>
       <c r="R20">
-        <v>0.07242063492063497</v>
+        <v>0.009575569358178057</v>
       </c>
       <c r="S20">
-        <v>-0.035024154589372</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="T20">
-        <v>0.02396514161220035</v>
+        <v>0.0150610969025292</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1760,13 +1793,13 @@
         <v>0.6052631578947367</v>
       </c>
       <c r="H21">
-        <v>0.5217391304347826</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I21">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J21">
-        <v>0.6</v>
+        <v>0.6052631578947367</v>
       </c>
       <c r="K21">
         <v>0.1449579831932773</v>
@@ -1781,25 +1814,25 @@
         <v>0.6143790849673202</v>
       </c>
       <c r="O21">
-        <v>0.03778467908902694</v>
+        <v>0.005306942053930008</v>
       </c>
       <c r="P21">
-        <v>-0.02472293265132142</v>
+        <v>0.01449275362318847</v>
       </c>
       <c r="Q21">
-        <v>0.01437908496732021</v>
+        <v>0.009115927072583463</v>
       </c>
       <c r="R21">
-        <v>0.07242063492063497</v>
+        <v>0.009575569358178057</v>
       </c>
       <c r="S21">
-        <v>-0.035024154589372</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="T21">
-        <v>0.02396514161220035</v>
+        <v>0.0150610969025292</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1822,13 +1855,13 @@
         <v>0.6</v>
       </c>
       <c r="H22">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I22">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J22">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K22">
         <v>0.1449579831932773</v>
@@ -1843,25 +1876,25 @@
         <v>0.6</v>
       </c>
       <c r="O22">
-        <v>0.02710027100271006</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.06649616368286448</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.06153846153846154</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.03484320557491294</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.1614906832298137</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1887,13 +1920,13 @@
         <v>0.6</v>
       </c>
       <c r="H23">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I23">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J23">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K23">
         <v>0.1449579831932773</v>
@@ -1908,25 +1941,25 @@
         <v>0.6</v>
       </c>
       <c r="O23">
-        <v>0.02710027100271006</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.06649616368286448</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.06153846153846154</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.03484320557491294</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.1614906832298137</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.1142857142857143</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1952,13 +1985,13 @@
         <v>0.6</v>
       </c>
       <c r="H24">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I24">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J24">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K24">
         <v>0.1449579831932773</v>
@@ -1973,25 +2006,25 @@
         <v>0.6126126126126127</v>
       </c>
       <c r="O24">
-        <v>0.03174603174603174</v>
+        <v>0.004645760743321681</v>
       </c>
       <c r="P24">
-        <v>0.0809889173060529</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="Q24">
-        <v>0.07415107415107425</v>
+        <v>0.01261261261261271</v>
       </c>
       <c r="R24">
-        <v>0.04081632653061224</v>
+        <v>0.005772005772005724</v>
       </c>
       <c r="S24">
-        <v>0.1966873706004142</v>
+        <v>0.03030303030303032</v>
       </c>
       <c r="T24">
-        <v>0.1377091377091379</v>
+        <v>0.02102102102102118</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2017,13 +2050,13 @@
         <v>0.6</v>
       </c>
       <c r="H25">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I25">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J25">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K25">
         <v>0.1449579831932773</v>
@@ -2038,25 +2071,25 @@
         <v>0.6126126126126127</v>
       </c>
       <c r="O25">
-        <v>0.03174603174603174</v>
+        <v>0.004645760743321681</v>
       </c>
       <c r="P25">
-        <v>0.0809889173060529</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="Q25">
-        <v>0.07415107415107425</v>
+        <v>0.01261261261261271</v>
       </c>
       <c r="R25">
-        <v>0.04081632653061224</v>
+        <v>0.005772005772005724</v>
       </c>
       <c r="S25">
-        <v>0.1966873706004142</v>
+        <v>0.03030303030303032</v>
       </c>
       <c r="T25">
-        <v>0.1377091377091379</v>
+        <v>0.02102102102102118</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2082,13 +2115,13 @@
         <v>0.6</v>
       </c>
       <c r="H26">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I26">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J26">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K26">
         <v>0.1449579831932773</v>
@@ -2103,25 +2136,25 @@
         <v>0.6126126126126127</v>
       </c>
       <c r="O26">
-        <v>0.03174603174603174</v>
+        <v>0.004645760743321681</v>
       </c>
       <c r="P26">
-        <v>0.0809889173060529</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="Q26">
-        <v>0.07415107415107425</v>
+        <v>0.01261261261261271</v>
       </c>
       <c r="R26">
-        <v>0.04081632653061224</v>
+        <v>0.005772005772005724</v>
       </c>
       <c r="S26">
-        <v>0.1966873706004142</v>
+        <v>0.03030303030303032</v>
       </c>
       <c r="T26">
-        <v>0.1377091377091379</v>
+        <v>0.02102102102102118</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2144,13 +2177,13 @@
         <v>0.6</v>
       </c>
       <c r="H27">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I27">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J27">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K27">
         <v>0.1449579831932773</v>
@@ -2165,25 +2198,25 @@
         <v>0.6949152542372882</v>
       </c>
       <c r="O27">
-        <v>0.05895691609977327</v>
+        <v>0.03185664509706321</v>
       </c>
       <c r="P27">
-        <v>0.1824381926683717</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="Q27">
-        <v>0.1564537157757497</v>
+        <v>0.09491525423728819</v>
       </c>
       <c r="R27">
-        <v>0.07580174927113706</v>
+        <v>0.03957946815089671</v>
       </c>
       <c r="S27">
-        <v>0.443064182194617</v>
+        <v>0.2424242424242423</v>
       </c>
       <c r="T27">
-        <v>0.2905569007263924</v>
+        <v>0.1581920903954803</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2209,13 +2242,13 @@
         <v>0.6</v>
       </c>
       <c r="H28">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I28">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J28">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K28">
         <v>0.1449579831932773</v>
@@ -2230,25 +2263,25 @@
         <v>0.6724137931034482</v>
       </c>
       <c r="O28">
-        <v>0.05200945626477538</v>
+        <v>0.02490918526206531</v>
       </c>
       <c r="P28">
-        <v>0.1534526854219949</v>
+        <v>0.08695652173913038</v>
       </c>
       <c r="Q28">
-        <v>0.1339522546419097</v>
+        <v>0.0724137931034482</v>
       </c>
       <c r="R28">
-        <v>0.06686930091185406</v>
+        <v>0.0309477756286266</v>
       </c>
       <c r="S28">
-        <v>0.3726708074534161</v>
+        <v>0.1818181818181817</v>
       </c>
       <c r="T28">
-        <v>0.2487684729064038</v>
+        <v>0.1206896551724137</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2274,13 +2307,13 @@
         <v>0.6</v>
       </c>
       <c r="H29">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I29">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J29">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K29">
         <v>0.1449579831932773</v>
@@ -2295,25 +2328,25 @@
         <v>0.625</v>
       </c>
       <c r="O29">
-        <v>0.03617571059431524</v>
+        <v>0.009075439591605172</v>
       </c>
       <c r="P29">
-        <v>0.09548167092924131</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q29">
-        <v>0.08653846153846156</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="R29">
-        <v>0.04651162790697673</v>
+        <v>0.01127554615926703</v>
       </c>
       <c r="S29">
-        <v>0.2318840579710146</v>
+        <v>0.06060606060606064</v>
       </c>
       <c r="T29">
-        <v>0.1607142857142858</v>
+        <v>0.04166666666666671</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2339,13 +2372,13 @@
         <v>0.6</v>
       </c>
       <c r="H30">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I30">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J30">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K30">
         <v>0.1449579831932773</v>
@@ -2360,25 +2393,25 @@
         <v>0.625</v>
       </c>
       <c r="O30">
-        <v>0.03617571059431524</v>
+        <v>0.009075439591605172</v>
       </c>
       <c r="P30">
-        <v>0.09548167092924131</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q30">
-        <v>0.08653846153846156</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="R30">
-        <v>0.04651162790697673</v>
+        <v>0.01127554615926703</v>
       </c>
       <c r="S30">
-        <v>0.2318840579710146</v>
+        <v>0.06060606060606064</v>
       </c>
       <c r="T30">
-        <v>0.1607142857142858</v>
+        <v>0.04166666666666671</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2404,13 +2437,13 @@
         <v>0.6</v>
       </c>
       <c r="H31">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I31">
-        <v>0.4117647058823529</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J31">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="K31">
         <v>0.1449579831932773</v>
@@ -2425,25 +2458,25 @@
         <v>0.625</v>
       </c>
       <c r="O31">
-        <v>0.03617571059431524</v>
+        <v>0.009075439591605172</v>
       </c>
       <c r="P31">
-        <v>0.09548167092924131</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="Q31">
-        <v>0.08653846153846156</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="R31">
-        <v>0.04651162790697673</v>
+        <v>0.01127554615926703</v>
       </c>
       <c r="S31">
-        <v>0.2318840579710146</v>
+        <v>0.06060606060606064</v>
       </c>
       <c r="T31">
-        <v>0.1607142857142858</v>
+        <v>0.04166666666666671</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2466,13 +2499,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I32">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J32">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K32">
         <v>0.1449579831932773</v>
@@ -2487,25 +2520,25 @@
         <v>0.582010582010582</v>
       </c>
       <c r="O32">
-        <v>-0.04166666666666669</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="P32">
-        <v>0.7382779198635976</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q32">
-        <v>0.4767474241158451</v>
+        <v>0.5553439153439154</v>
       </c>
       <c r="R32">
-        <v>-0.08333333333333337</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="S32">
-        <v>12.55072463768116</v>
+        <v>54.00000000000002</v>
       </c>
       <c r="T32">
-        <v>4.529100529100529</v>
+        <v>20.82539682539688</v>
       </c>
       <c r="U32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2531,13 +2564,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I33">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J33">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K33">
         <v>0.1449579831932773</v>
@@ -2552,25 +2585,25 @@
         <v>0.582010582010582</v>
       </c>
       <c r="O33">
-        <v>-0.04166666666666669</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="P33">
-        <v>0.7382779198635976</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q33">
-        <v>0.4767474241158451</v>
+        <v>0.5553439153439154</v>
       </c>
       <c r="R33">
-        <v>-0.08333333333333337</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="S33">
-        <v>12.55072463768116</v>
+        <v>54.00000000000002</v>
       </c>
       <c r="T33">
-        <v>4.529100529100529</v>
+        <v>20.82539682539688</v>
       </c>
       <c r="U33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2596,13 +2629,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I34">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J34">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K34">
         <v>0.1449579831932773</v>
@@ -2617,25 +2650,25 @@
         <v>0.3314917127071823</v>
       </c>
       <c r="O34">
-        <v>-0.2321428571428572</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="P34">
-        <v>0.3759590792838874</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="Q34">
-        <v>0.2262285548124455</v>
+        <v>0.3048250460405157</v>
       </c>
       <c r="R34">
-        <v>-0.4642857142857143</v>
+        <v>0.6071428571428578</v>
       </c>
       <c r="S34">
-        <v>6.391304347826087</v>
+        <v>29.00000000000001</v>
       </c>
       <c r="T34">
-        <v>2.149171270718232</v>
+        <v>11.43093922651937</v>
       </c>
       <c r="U34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2661,13 +2694,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I35">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J35">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K35">
         <v>0.1449579831932773</v>
@@ -2682,25 +2715,25 @@
         <v>0.3314917127071823</v>
       </c>
       <c r="O35">
-        <v>-0.2321428571428572</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="P35">
-        <v>0.3759590792838874</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="Q35">
-        <v>0.2262285548124455</v>
+        <v>0.3048250460405157</v>
       </c>
       <c r="R35">
-        <v>-0.4642857142857143</v>
+        <v>0.6071428571428578</v>
       </c>
       <c r="S35">
-        <v>6.391304347826087</v>
+        <v>29.00000000000001</v>
       </c>
       <c r="T35">
-        <v>2.149171270718232</v>
+        <v>11.43093922651937</v>
       </c>
       <c r="U35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2726,13 +2759,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I36">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J36">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K36">
         <v>0.1449579831932773</v>
@@ -2747,25 +2780,25 @@
         <v>0.3314917127071823</v>
       </c>
       <c r="O36">
-        <v>-0.2321428571428572</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="P36">
-        <v>0.3759590792838874</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="Q36">
-        <v>0.2262285548124455</v>
+        <v>0.3048250460405157</v>
       </c>
       <c r="R36">
-        <v>-0.4642857142857143</v>
+        <v>0.6071428571428578</v>
       </c>
       <c r="S36">
-        <v>6.391304347826087</v>
+        <v>29.00000000000001</v>
       </c>
       <c r="T36">
-        <v>2.149171270718232</v>
+        <v>11.43093922651937</v>
       </c>
       <c r="U36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2788,13 +2821,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I37">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J37">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K37">
         <v>0.1449579831932773</v>
@@ -2809,25 +2842,25 @@
         <v>0.5930232558139534</v>
       </c>
       <c r="O37">
-        <v>-0.004854368932038833</v>
+        <v>0.3284789644012945</v>
       </c>
       <c r="P37">
-        <v>0.6803069053708439</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="Q37">
-        <v>0.4877600979192166</v>
+        <v>0.5663565891472868</v>
       </c>
       <c r="R37">
-        <v>-0.009708737864077666</v>
+        <v>1.970873786407768</v>
       </c>
       <c r="S37">
-        <v>11.56521739130435</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="T37">
-        <v>4.633720930232558</v>
+        <v>21.23837209302331</v>
       </c>
       <c r="U37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2853,13 +2886,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I38">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J38">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K38">
         <v>0.1449579831932773</v>
@@ -2874,25 +2907,25 @@
         <v>0.5930232558139534</v>
       </c>
       <c r="O38">
-        <v>-0.004854368932038833</v>
+        <v>0.3284789644012945</v>
       </c>
       <c r="P38">
-        <v>0.6803069053708439</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="Q38">
-        <v>0.4877600979192166</v>
+        <v>0.5663565891472868</v>
       </c>
       <c r="R38">
-        <v>-0.009708737864077666</v>
+        <v>1.970873786407768</v>
       </c>
       <c r="S38">
-        <v>11.56521739130435</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="T38">
-        <v>4.633720930232558</v>
+        <v>21.23837209302331</v>
       </c>
       <c r="U38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2918,13 +2951,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I39">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J39">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K39">
         <v>0.1449579831932773</v>
@@ -2939,25 +2972,25 @@
         <v>0.3140495867768595</v>
       </c>
       <c r="O39">
-        <v>-0.1346153846153846</v>
+        <v>0.1987179487179488</v>
       </c>
       <c r="P39">
-        <v>0.216538789428815</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="Q39">
-        <v>0.2087864288821227</v>
+        <v>0.2873829201101929</v>
       </c>
       <c r="R39">
-        <v>-0.2692307692307693</v>
+        <v>1.192307692307693</v>
       </c>
       <c r="S39">
-        <v>3.681159420289855</v>
+        <v>18.00000000000001</v>
       </c>
       <c r="T39">
-        <v>1.983471074380166</v>
+        <v>10.77685950413226</v>
       </c>
       <c r="U39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2983,13 +3016,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I40">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J40">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K40">
         <v>0.1449579831932773</v>
@@ -3004,25 +3037,25 @@
         <v>0.3140495867768595</v>
       </c>
       <c r="O40">
-        <v>-0.1346153846153846</v>
+        <v>0.1987179487179488</v>
       </c>
       <c r="P40">
-        <v>0.216538789428815</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="Q40">
-        <v>0.2087864288821227</v>
+        <v>0.2873829201101929</v>
       </c>
       <c r="R40">
-        <v>-0.2692307692307693</v>
+        <v>1.192307692307693</v>
       </c>
       <c r="S40">
-        <v>3.681159420289855</v>
+        <v>18.00000000000001</v>
       </c>
       <c r="T40">
-        <v>1.983471074380166</v>
+        <v>10.77685950413226</v>
       </c>
       <c r="U40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3048,13 +3081,13 @@
         <v>0.0266666666666666</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I41">
-        <v>0.05882352941176471</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="J41">
-        <v>0.1052631578947368</v>
+        <v>0.0266666666666666</v>
       </c>
       <c r="K41">
         <v>0.1449579831932773</v>
@@ -3069,25 +3102,25 @@
         <v>0.3140495867768595</v>
       </c>
       <c r="O41">
-        <v>-0.1346153846153846</v>
+        <v>0.1987179487179488</v>
       </c>
       <c r="P41">
-        <v>0.216538789428815</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="Q41">
-        <v>0.2087864288821227</v>
+        <v>0.2873829201101929</v>
       </c>
       <c r="R41">
-        <v>-0.2692307692307693</v>
+        <v>1.192307692307693</v>
       </c>
       <c r="S41">
-        <v>3.681159420289855</v>
+        <v>18.00000000000001</v>
       </c>
       <c r="T41">
-        <v>1.983471074380166</v>
+        <v>10.77685950413226</v>
       </c>
       <c r="U41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
